--- a/Account_starts_by_DD_and_profit/time_trigger_optimization_results.xlsx
+++ b/Account_starts_by_DD_and_profit/time_trigger_optimization_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vova deduskin lap\PycharmProjects\1500_count\Account_starts_by_DD_and_profit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E88D63-654A-4706-B4AB-1FC3601B34C4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A568D0E1-27C2-4494-AC1F-1EAC9524592B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -76,18 +76,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -117,14 +111,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +459,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -491,22 +486,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2464752</v>
+        <v>30</v>
+      </c>
+      <c r="G2" s="3">
+        <v>551584</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="I2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-184578</v>
+        <v>-43058</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -520,22 +515,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1905880</v>
+        <v>35</v>
+      </c>
+      <c r="G3" s="3">
+        <v>468454</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="I3">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="J3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-143662</v>
+        <v>-37572</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -549,22 +544,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1484271</v>
+        <v>40</v>
+      </c>
+      <c r="G4" s="3">
+        <v>428688</v>
       </c>
       <c r="H4">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="I4">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="J4">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>-108944</v>
+        <v>-33064</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -578,22 +573,22 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1172330</v>
+        <v>45</v>
+      </c>
+      <c r="G5" s="3">
+        <v>389346</v>
       </c>
       <c r="H5">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="I5">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="J5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>-86750</v>
+        <v>-30176</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -607,22 +602,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2">
-        <v>954306</v>
+        <v>50</v>
+      </c>
+      <c r="G6" s="3">
+        <v>354464</v>
       </c>
       <c r="H6">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I6">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J6">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>-71636</v>
+        <v>-28984</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -636,22 +631,22 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>35</v>
-      </c>
-      <c r="G7" s="2">
-        <v>822050</v>
+        <v>55</v>
+      </c>
+      <c r="G7" s="3">
+        <v>335906</v>
       </c>
       <c r="H7">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>-59446</v>
+        <v>-25609</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -665,22 +660,22 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>40</v>
-      </c>
-      <c r="G8" s="2">
-        <v>767430</v>
+        <v>60</v>
+      </c>
+      <c r="G8" s="3">
+        <v>315355</v>
       </c>
       <c r="H8">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I8">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>-56822</v>
+        <v>-25764</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -694,22 +689,22 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>45</v>
-      </c>
-      <c r="G9" s="2">
-        <v>676050</v>
+        <v>65</v>
+      </c>
+      <c r="G9" s="3">
+        <v>297563</v>
       </c>
       <c r="H9">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>-50274</v>
+        <v>-22792</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -723,22 +718,22 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>50</v>
-      </c>
-      <c r="G10" s="2">
-        <v>604138</v>
+        <v>70</v>
+      </c>
+      <c r="G10" s="3">
+        <v>267986</v>
       </c>
       <c r="H10">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I10">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>-44856</v>
+        <v>-20182</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -752,22 +747,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>55</v>
-      </c>
-      <c r="G11" s="2">
-        <v>512921</v>
+        <v>75</v>
+      </c>
+      <c r="G11" s="3">
+        <v>263962</v>
       </c>
       <c r="H11">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>-40946</v>
+        <v>-21470</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -781,22 +776,22 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>60</v>
-      </c>
-      <c r="G12" s="2">
-        <v>469630</v>
+        <v>80</v>
+      </c>
+      <c r="G12" s="3">
+        <v>251603</v>
       </c>
       <c r="H12">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>-34232</v>
+        <v>-20396</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -810,22 +805,22 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>65</v>
-      </c>
-      <c r="G13" s="2">
-        <v>431118</v>
+        <v>85</v>
+      </c>
+      <c r="G13" s="3">
+        <v>229364</v>
       </c>
       <c r="H13">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>-32017</v>
+        <v>-17128</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -839,196 +834,22 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>75</v>
-      </c>
-      <c r="G14" s="2">
-        <v>420257</v>
+        <v>90</v>
+      </c>
+      <c r="G14" s="3">
+        <v>218200</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I14">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>-30085</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="b">
-        <v>1</v>
-      </c>
-      <c r="B15" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>70</v>
-      </c>
-      <c r="G15" s="2">
-        <v>412918</v>
-      </c>
-      <c r="H15">
-        <v>24</v>
-      </c>
-      <c r="I15">
-        <v>16</v>
-      </c>
-      <c r="J15">
-        <v>8</v>
-      </c>
-      <c r="K15">
-        <v>-29728</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="b">
-        <v>1</v>
-      </c>
-      <c r="B16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>80</v>
-      </c>
-      <c r="G16" s="2">
-        <v>388711</v>
-      </c>
-      <c r="H16">
-        <v>21</v>
-      </c>
-      <c r="I16">
-        <v>16</v>
-      </c>
-      <c r="J16">
-        <v>5</v>
-      </c>
-      <c r="K16">
-        <v>-27657</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="b">
-        <v>1</v>
-      </c>
-      <c r="B17" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>85</v>
-      </c>
-      <c r="G17" s="2">
-        <v>362867</v>
-      </c>
-      <c r="H17">
-        <v>20</v>
-      </c>
-      <c r="I17">
-        <v>15</v>
-      </c>
-      <c r="J17">
-        <v>5</v>
-      </c>
-      <c r="K17">
-        <v>-26950</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="b">
-        <v>1</v>
-      </c>
-      <c r="B18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>90</v>
-      </c>
-      <c r="G18" s="2">
-        <v>330450</v>
-      </c>
-      <c r="H18">
-        <v>19</v>
-      </c>
-      <c r="I18">
-        <v>14</v>
-      </c>
-      <c r="J18">
-        <v>5</v>
-      </c>
-      <c r="K18">
-        <v>-25107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="b">
-        <v>1</v>
-      </c>
-      <c r="B19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>95</v>
-      </c>
-      <c r="G19" s="2">
-        <v>311654</v>
-      </c>
-      <c r="H19">
-        <v>18</v>
-      </c>
-      <c r="I19">
-        <v>13</v>
-      </c>
-      <c r="J19">
-        <v>5</v>
-      </c>
-      <c r="K19">
-        <v>-22346</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>100</v>
-      </c>
-      <c r="G20" s="4">
-        <v>311436</v>
-      </c>
-      <c r="H20" s="3">
-        <v>17</v>
-      </c>
-      <c r="I20" s="3">
-        <v>12</v>
-      </c>
-      <c r="J20" s="3">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-24878</v>
+        <v>-16220</v>
       </c>
     </row>
   </sheetData>

--- a/Account_starts_by_DD_and_profit/time_trigger_optimization_results.xlsx
+++ b/Account_starts_by_DD_and_profit/time_trigger_optimization_results.xlsx
@@ -1,84 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vova deduskin lap\PycharmProjects\1500_count\Account_starts_by_DD_and_profit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A568D0E1-27C2-4494-AC1F-1EAC9524592B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Time_trigger</t>
-  </si>
-  <si>
-    <t>DD_trigger</t>
-  </si>
-  <si>
-    <t>Prof_trigger</t>
-  </si>
-  <si>
-    <t>Days_thres</t>
-  </si>
-  <si>
-    <t>DD_thres</t>
-  </si>
-  <si>
-    <t>Profit_thres</t>
-  </si>
-  <si>
-    <t>Final_equity</t>
-  </si>
-  <si>
-    <t>Accs_started</t>
-  </si>
-  <si>
-    <t>Accs_alive</t>
-  </si>
-  <si>
-    <t>Accs_blown</t>
-  </si>
-  <si>
-    <t>Portf_max_DD</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,47 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,61 +420,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="8" width="13" customWidth="1"/>
-    <col min="9" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time_trigger</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DD_trigger</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Prof_trigger</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Days_thres</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>DD_thres</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Profit_thres</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Final_equity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Accs_started</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Accs_alive</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Accs_blown</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Portf_max_DD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -485,26 +513,28 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>30</v>
       </c>
-      <c r="G2" s="3">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
         <v>551584</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>45</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>45</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>-43058</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="b">
         <v>1</v>
       </c>
@@ -514,26 +544,28 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>35</v>
       </c>
-      <c r="G3" s="3">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
         <v>468454</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>38</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>38</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>-37572</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="b">
         <v>1</v>
       </c>
@@ -543,26 +575,28 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>40</v>
       </c>
-      <c r="G4" s="3">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
         <v>428688</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>35</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>35</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>-33064</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="b">
         <v>1</v>
       </c>
@@ -572,26 +606,28 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>45</v>
       </c>
-      <c r="G5" s="3">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
         <v>389346</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>32</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>32</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>-30176</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -601,26 +637,28 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>50</v>
       </c>
-      <c r="G6" s="3">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
         <v>354464</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>29</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>29</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>-28984</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="b">
         <v>1</v>
       </c>
@@ -630,26 +668,28 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>55</v>
       </c>
-      <c r="G7" s="3">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
         <v>335906</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>27</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>27</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>-25609</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="b">
         <v>1</v>
       </c>
@@ -659,26 +699,28 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>60</v>
       </c>
-      <c r="G8" s="3">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
         <v>315355</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>26</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>26</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>-25764</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="b">
         <v>1</v>
       </c>
@@ -688,26 +730,28 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>65</v>
       </c>
-      <c r="G9" s="3">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
         <v>297563</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>24</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>24</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>-22792</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="b">
         <v>1</v>
       </c>
@@ -717,26 +761,28 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>70</v>
       </c>
-      <c r="G10" s="3">
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
         <v>267986</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>22</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>22</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>-20182</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="b">
         <v>1</v>
       </c>
@@ -746,26 +792,28 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>75</v>
       </c>
-      <c r="G11" s="3">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
         <v>263962</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>22</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>22</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>-21470</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="b">
         <v>1</v>
       </c>
@@ -775,26 +823,28 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>80</v>
       </c>
-      <c r="G12" s="3">
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
         <v>251603</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>20</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>20</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>-20396</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="b">
         <v>1</v>
       </c>
@@ -804,26 +854,28 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>85</v>
       </c>
-      <c r="G13" s="3">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
         <v>229364</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>19</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>19</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>-17128</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="b">
         <v>1</v>
       </c>
@@ -833,22 +885,24 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>90</v>
       </c>
-      <c r="G14" s="3">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
         <v>218200</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>18</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>18</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>-16220</v>
       </c>
     </row>
